--- a/biology/Botanique/Flore_des_États-Unis/Flore_des_États-Unis.xlsx
+++ b/biology/Botanique/Flore_des_États-Unis/Flore_des_États-Unis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flore_des_%C3%89tats-Unis</t>
+          <t>Flore_des_États-Unis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La flore indigène des États-Unis comprend environ 17 000 espèces de plantes vasculaires, ainsi que des dizaines de milliers d'autres espèces d'autres plantes et organismes apparentés aux plantes comme les algues, les lichens et autres champignons et mousses. Environ 3 800 espèces de plantes vasculaires non indigènes supplémentaires sont enregistrées comme établies hors de la culture aux États-Unis, ainsi qu'un nombre beaucoup plus faible de plantes non vasculaires non indigènes et de plantes apparentées. Les États-Unis possèdent l'une des flores tempérées les plus diversifiées au monde, comparable uniquement à celle de la Chine. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Flore_des_%C3%89tats-Unis</t>
+          <t>Flore_des_États-Unis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Aspects géographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs facteurs biogéographiques contribuent à la richesse et à la diversité de la flore américaine. Alors que la plupart des États-Unis a un climat tempéré, l'Alaska possède de vastes zones arctiques, la partie sud de la Floride est tropicale, ainsi que Hawaii (y compris les hautes montagnes), et les sommets alpins sont présents sur de nombreuses montagnes de l'ouest, ainsi que quelques-uns dans le nord-est. Le littoral américain borde trois océans: l'Atlantique (et le golfe du Mexique), l'Arctique et le Pacifique. Enfin, les États-Unis partagent de longues frontières avec le Canada et le Mexique, et sont relativement proches des Bahamas, de Cuba et d'autres îles des Caraïbes et de l'Asie extrême-orientale. On y trouve aussi bien des forêts pluviales (tempérées dans l’État de Washington, tropicales à Hawaii) ainsi que certains des déserts les plus secs du monde. 
 La forêt mixte (conifères, feuillus) des Appalaches se caractérise par la profusion et la grande variété des arbres (chênes, hêtres, bouleaux, noyers, sapins, épicéas, érables). Elle atteint un maximum de diversité dans le Great Smoky Mountains National Park, à l’ouest de la Caroline du Nord et à l’est du Tennessee, qui possède à lui seul plus d’espèces d’arbres que tout le continent européen. D’épaisses forêts de conifères (pins, cèdres rouges, sapins de Douglas, épicéas) couvrent également les montagnes Rocheuses septentrionales, notamment dans les montagnes du Nord-Ouest pacifique (chaîne des Cascades, Olympic Mountains). Elles laissent progressivement la place, vers le sud, à des forêts sèches de pins jaunes, puis à une végétation basse de type garrigue (chaparral californien). Au sud-ouest, le massif montagneux de la Sierra Nevada, où les précipitations demeurent notables, est célèbre pour ses forêts de séquoias géants millénaires. La plaine côtière de l’Atlantique et du golfe du Mexique est le domaine du pin et du gommier tandis que la côte marécageuse est bordée de cyprès et de palétuviers. Dans les plateaux semi-arides (« Hautes Plaines », plateaux de l’Ouest) domine une végétation steppique de plus en plus clairsemée, au caractère xérophile (adapté à la sécheresse). 
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Flore_des_%C3%89tats-Unis</t>
+          <t>Flore_des_États-Unis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Flore indigène</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La flore indigène des États-Unis a fourni au monde un grand nombre de plantes horticoles et agricoles, principalement des plantes ornementales, telles que le cornouiller à fleurs, le bouton rouge, le laurier des montagnes, le cyprès chauve, le magnolia à grandes fleurs et le robinier faux acacia, tous maintenant cultivés dans les régions tempérées du monde entier, mais aussi diverses plantes alimentaires telles que les bleuets, les framboises noires, les canneberges, le sirop et le sucre d'érable et les pacanes, le pin de Monterey et d'autres arbres à bois. 
 Certaines des plantes indigènes des États-Unis, comme Franklinia alatamaha, se sont manifestement éteintes ou éteintes à l'état sauvage ; d'autres, comme Micranthemum micranthemoides, n'ont pas été observés depuis des décennies, mais peuvent encore exister. Des milliers d'autres plantes vasculaires indigènes des États-Unis sont considérées comme rares, menacées ou en voie de disparition, à l'échelle mondiale (à l'échelle de l'aire de répartition) ou dans des États particuliers. 
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Flore_des_%C3%89tats-Unis</t>
+          <t>Flore_des_États-Unis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Divisions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Selon Armen Takhtajan, Robert F. Thorne et d'autres géobotanistes, le territoire des États-Unis (y compris Hawaii et l'Alaska) est divisé entre trois royaumes floristiques, six régions floristiques et douze provinces floristiques, caractérisées par un certain degré d'endémisme : 
 Royaume Holarctique
@@ -610,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Flore_des_%C3%89tats-Unis</t>
+          <t>Flore_des_États-Unis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,7 +646,9 @@
           <t>Quelques arbres emblématiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sequoias : Sequoia Redwood, Sequoia géant (arbres officiels de Californie)
 Palmiers : Palmier de Californie, Palmier des Sables (arbre officiel de Floride et de Caroline du Sud)
@@ -651,7 +671,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Flore_des_%C3%89tats-Unis</t>
+          <t>Flore_des_États-Unis</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -669,7 +689,9 @@
           <t>Quelques fleurs emblématiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cactus : Saguaro (plante officielle de l'Arizona), Tuyau d'Orgue, Yucca (plante officielle du Nouveau-Mexique), Arbre de Josué, Ocotillo
 Oranger de Floride (plante officielle de Floride)
@@ -698,7 +720,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Flore_des_%C3%89tats-Unis</t>
+          <t>Flore_des_États-Unis</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -716,7 +738,9 @@
           <t>Diaporama d'arbres et plantes remarquables aux États-Unis</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Sequoia
